--- a/doc/excel/干部/[sample_cadre_useCadreState]领导干部录入样表.xlsx
+++ b/doc/excel/干部/[sample_cadre_useCadreState]领导干部录入样表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330DD8A8-354A-499D-9CD6-A40FE88A08E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="26670" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26670" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="3" r:id="rId1"/>
@@ -83,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,26 +125,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -172,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -193,18 +183,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,23 +286,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,23 +321,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,9 +510,9 @@
     <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="9" customWidth="1"/>
     <col min="10" max="11" width="12.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -570,7 +523,7 @@
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -579,19 +532,19 @@
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -615,19 +568,19 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{DFFA62E3-0891-49A0-8288-0831D4A97AF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{184D3406-2E60-455E-83FA-5492A28F20AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"院系干部,机关干部"</formula1>
     </dataValidation>
   </dataValidations>
